--- a/data/InfoBs.xlsx
+++ b/data/InfoBs.xlsx
@@ -52,7 +52,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="81">
+  <borders count="127">
     <border>
       <left/>
       <right/>
@@ -140,13 +140,59 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -230,6 +276,52 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="117" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="125" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="126" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -596,7 +688,7 @@
         <v>100</v>
       </c>
       <c r="G1" s="0">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H1" s="0">
         <v>1</v>
@@ -625,7 +717,7 @@
         <v>100</v>
       </c>
       <c r="G2" s="0">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H2" s="0">
         <v>2</v>
@@ -636,7 +728,7 @@
     </row>
     <row r="3" x14ac:dyDescent="0.25">
       <c r="A3" s="0">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="B3" s="0">
         <v>350</v>
@@ -654,7 +746,7 @@
         <v>75</v>
       </c>
       <c r="G3" s="0">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H3" s="0">
         <v>3</v>
@@ -683,7 +775,7 @@
         <v>75</v>
       </c>
       <c r="G4" s="0">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H4" s="0">
         <v>4</v>
@@ -712,7 +804,7 @@
         <v>75</v>
       </c>
       <c r="G5" s="0">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H5" s="0">
         <v>5</v>
@@ -741,7 +833,7 @@
         <v>75</v>
       </c>
       <c r="G6" s="0">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H6" s="0">
         <v>6</v>
@@ -770,7 +862,7 @@
         <v>75</v>
       </c>
       <c r="G7" s="0">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H7" s="0">
         <v>7</v>
@@ -799,7 +891,7 @@
         <v>75</v>
       </c>
       <c r="G8" s="0">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H8" s="0">
         <v>8</v>
@@ -828,7 +920,7 @@
         <v>75</v>
       </c>
       <c r="G9" s="0">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H9" s="0">
         <v>9</v>
@@ -857,7 +949,7 @@
         <v>75</v>
       </c>
       <c r="G10" s="0">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H10" s="0">
         <v>10</v>
@@ -886,7 +978,7 @@
         <v>75</v>
       </c>
       <c r="G11" s="0">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H11" s="0">
         <v>11</v>
@@ -915,7 +1007,7 @@
         <v>75</v>
       </c>
       <c r="G12" s="0">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H12" s="0">
         <v>12</v>
@@ -944,7 +1036,7 @@
         <v>75</v>
       </c>
       <c r="G13" s="0">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H13" s="0">
         <v>13</v>
@@ -973,7 +1065,7 @@
         <v>75</v>
       </c>
       <c r="G14" s="0">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H14" s="0">
         <v>14</v>
@@ -1002,7 +1094,7 @@
         <v>75</v>
       </c>
       <c r="G15" s="0">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H15" s="0">
         <v>15</v>
@@ -1016,7 +1108,7 @@
         <v>1720</v>
       </c>
       <c r="B16" s="0">
-        <v>555</v>
+        <v>215</v>
       </c>
       <c r="C16" s="0">
         <v>0</v>
@@ -1031,7 +1123,7 @@
         <v>75</v>
       </c>
       <c r="G16" s="0">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H16" s="0">
         <v>16</v>
@@ -1060,7 +1152,7 @@
         <v>75</v>
       </c>
       <c r="G17" s="0">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H17" s="0">
         <v>17</v>
@@ -1089,7 +1181,7 @@
         <v>75</v>
       </c>
       <c r="G18" s="0">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H18" s="0">
         <v>18</v>
@@ -1118,7 +1210,7 @@
         <v>75</v>
       </c>
       <c r="G19" s="0">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H19" s="0">
         <v>19</v>
@@ -1129,10 +1221,10 @@
     </row>
     <row r="20" x14ac:dyDescent="0.25">
       <c r="A20" s="0">
-        <v>1680</v>
+        <v>1580</v>
       </c>
       <c r="B20" s="0">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="C20" s="0">
         <v>0</v>
@@ -1147,7 +1239,7 @@
         <v>75</v>
       </c>
       <c r="G20" s="0">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H20" s="0">
         <v>20</v>
@@ -1158,10 +1250,10 @@
     </row>
     <row r="21" x14ac:dyDescent="0.25">
       <c r="A21" s="0">
-        <v>1900</v>
+        <v>200</v>
       </c>
       <c r="B21" s="0">
-        <v>570</v>
+        <v>900</v>
       </c>
       <c r="C21" s="0">
         <v>0</v>
@@ -1176,7 +1268,7 @@
         <v>75</v>
       </c>
       <c r="G21" s="0">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H21" s="0">
         <v>21</v>
@@ -1205,7 +1297,7 @@
         <v>75</v>
       </c>
       <c r="G22" s="0">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H22" s="0">
         <v>22</v>
@@ -1216,7 +1308,7 @@
     </row>
     <row r="23" x14ac:dyDescent="0.25">
       <c r="A23" s="0">
-        <v>1150</v>
+        <v>800</v>
       </c>
       <c r="B23" s="0">
         <v>1350</v>
@@ -1306,7 +1398,7 @@
         <v>600</v>
       </c>
       <c r="B26" s="0">
-        <v>680</v>
+        <v>1380</v>
       </c>
       <c r="C26" s="0">
         <v>0</v>
@@ -1332,7 +1424,7 @@
     </row>
     <row r="27" x14ac:dyDescent="0.25">
       <c r="A27" s="0">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="B27" s="0">
         <v>340</v>
@@ -1506,10 +1598,10 @@
     </row>
     <row r="33" x14ac:dyDescent="0.25">
       <c r="A33" s="0">
-        <v>1500</v>
+        <v>130</v>
       </c>
       <c r="B33" s="0">
-        <v>940</v>
+        <v>710</v>
       </c>
       <c r="C33" s="0">
         <v>0</v>
@@ -1535,7 +1627,7 @@
     </row>
     <row r="34" x14ac:dyDescent="0.25">
       <c r="A34" s="0">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="B34" s="0">
         <v>760</v>
@@ -1622,7 +1714,7 @@
     </row>
     <row r="37" x14ac:dyDescent="0.25">
       <c r="A37" s="0">
-        <v>730</v>
+        <v>1030</v>
       </c>
       <c r="B37" s="0">
         <v>1860</v>

--- a/data/InfoBs.xlsx
+++ b/data/InfoBs.xlsx
@@ -52,7 +52,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="127">
+  <borders count="149">
     <border>
       <left/>
       <right/>
@@ -186,13 +186,35 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -322,6 +344,28 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="125" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="126" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="131" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="132" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="133" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="134" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="135" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="136" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="137" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="138" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="139" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="140" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="141" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="142" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="143" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="144" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="145" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="146" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="147" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="148" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>

--- a/data/InfoBs.xlsx
+++ b/data/InfoBs.xlsx
@@ -52,7 +52,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="149">
+  <borders count="160">
     <border>
       <left/>
       <right/>
@@ -208,13 +208,24 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -366,6 +377,17 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="146" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="147" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="148" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="149" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="150" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="151" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="152" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="153" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="154" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="155" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="156" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="157" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="158" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="159" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>

--- a/data/InfoBs.xlsx
+++ b/data/InfoBs.xlsx
@@ -52,7 +52,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="160">
+  <borders count="182">
     <border>
       <left/>
       <right/>
@@ -219,13 +219,35 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -388,6 +410,28 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="157" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="158" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="159" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="160" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="161" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="162" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="163" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="164" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="165" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="166" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="167" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="168" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="169" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="170" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="171" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="172" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="173" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="174" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="175" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="176" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="177" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="178" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="179" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="180" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="181" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>

--- a/data/InfoBs.xlsx
+++ b/data/InfoBs.xlsx
@@ -52,7 +52,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="182">
+  <borders count="250">
     <border>
       <left/>
       <right/>
@@ -241,13 +241,81 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -432,6 +500,74 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="179" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="180" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="181" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="182" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="183" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="184" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="185" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="186" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="187" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="188" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="189" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="190" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="191" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="192" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="193" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="194" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="195" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="196" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="197" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="198" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="199" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="200" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="201" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="202" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="203" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="204" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="205" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="206" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="207" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="208" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="209" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="210" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="211" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="212" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="213" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="214" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="215" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="216" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="217" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="218" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="219" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="220" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="221" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="222" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="223" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="224" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="225" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="226" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="227" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="228" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="229" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="230" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="231" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="232" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="233" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="234" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="235" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="236" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="237" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="238" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="239" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="240" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="241" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="242" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="243" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="244" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="245" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="246" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="247" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="248" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="249" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -767,15 +903,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="true"/>
-    <col min="2" max="2" width="6.125" customWidth="true"/>
-    <col min="3" max="3" width="2.125" customWidth="true"/>
-    <col min="4" max="4" width="5.125" customWidth="true"/>
-    <col min="5" max="5" width="2.125" customWidth="true"/>
-    <col min="6" max="6" width="4.125" customWidth="true"/>
-    <col min="7" max="7" width="3.125" customWidth="true"/>
-    <col min="8" max="8" width="3.125" customWidth="true"/>
-    <col min="9" max="9" width="2.125" customWidth="true"/>
+    <col min="1" max="1" width="5.1796875" customWidth="true"/>
+    <col min="2" max="2" width="6.1796875" customWidth="true"/>
+    <col min="3" max="3" width="2.1796875" customWidth="true"/>
+    <col min="4" max="4" width="4.1796875" customWidth="true"/>
+    <col min="5" max="5" width="2.1796875" customWidth="true"/>
+    <col min="6" max="6" width="4.1796875" customWidth="true"/>
+    <col min="7" max="7" width="3.1796875" customWidth="true"/>
+    <col min="8" max="8" width="3.1796875" customWidth="true"/>
+    <col min="9" max="9" width="2.1796875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.25">
@@ -789,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="0">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="E1" s="0">
         <v>2</v>
@@ -798,7 +934,7 @@
         <v>100</v>
       </c>
       <c r="G1" s="0">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H1" s="0">
         <v>1</v>
@@ -818,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="E2" s="0">
         <v>2</v>
@@ -827,7 +963,7 @@
         <v>100</v>
       </c>
       <c r="G2" s="0">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H2" s="0">
         <v>2</v>
@@ -856,7 +992,7 @@
         <v>75</v>
       </c>
       <c r="G3" s="0">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H3" s="0">
         <v>3</v>
@@ -885,7 +1021,7 @@
         <v>75</v>
       </c>
       <c r="G4" s="0">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H4" s="0">
         <v>4</v>
@@ -914,7 +1050,7 @@
         <v>75</v>
       </c>
       <c r="G5" s="0">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H5" s="0">
         <v>5</v>
@@ -943,7 +1079,7 @@
         <v>75</v>
       </c>
       <c r="G6" s="0">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H6" s="0">
         <v>6</v>
@@ -972,7 +1108,7 @@
         <v>75</v>
       </c>
       <c r="G7" s="0">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H7" s="0">
         <v>7</v>
@@ -1001,7 +1137,7 @@
         <v>75</v>
       </c>
       <c r="G8" s="0">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H8" s="0">
         <v>8</v>
@@ -1030,7 +1166,7 @@
         <v>75</v>
       </c>
       <c r="G9" s="0">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H9" s="0">
         <v>9</v>
@@ -1059,7 +1195,7 @@
         <v>75</v>
       </c>
       <c r="G10" s="0">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H10" s="0">
         <v>10</v>
@@ -1088,7 +1224,7 @@
         <v>75</v>
       </c>
       <c r="G11" s="0">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H11" s="0">
         <v>11</v>
@@ -1117,7 +1253,7 @@
         <v>75</v>
       </c>
       <c r="G12" s="0">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H12" s="0">
         <v>12</v>
@@ -1146,7 +1282,7 @@
         <v>75</v>
       </c>
       <c r="G13" s="0">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H13" s="0">
         <v>13</v>
@@ -1175,7 +1311,7 @@
         <v>75</v>
       </c>
       <c r="G14" s="0">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H14" s="0">
         <v>14</v>
@@ -1204,7 +1340,7 @@
         <v>75</v>
       </c>
       <c r="G15" s="0">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H15" s="0">
         <v>15</v>
@@ -1233,7 +1369,7 @@
         <v>75</v>
       </c>
       <c r="G16" s="0">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H16" s="0">
         <v>16</v>
@@ -1262,7 +1398,7 @@
         <v>75</v>
       </c>
       <c r="G17" s="0">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H17" s="0">
         <v>17</v>
@@ -1291,7 +1427,7 @@
         <v>75</v>
       </c>
       <c r="G18" s="0">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H18" s="0">
         <v>18</v>
@@ -1320,7 +1456,7 @@
         <v>75</v>
       </c>
       <c r="G19" s="0">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H19" s="0">
         <v>19</v>
@@ -1349,7 +1485,7 @@
         <v>75</v>
       </c>
       <c r="G20" s="0">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H20" s="0">
         <v>20</v>
@@ -1378,7 +1514,7 @@
         <v>75</v>
       </c>
       <c r="G21" s="0">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H21" s="0">
         <v>21</v>
@@ -1407,7 +1543,7 @@
         <v>75</v>
       </c>
       <c r="G22" s="0">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H22" s="0">
         <v>22</v>
